--- a/pearson_tables/tp_netherlands_cumul-2-4.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-4.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5685587661303425</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6869283034368575</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6307290803547269</v>
+        <v>0.672815012825899</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6928393586416793</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5743307210285024</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5799552367052488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7878962204758877</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04958575415650474</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3257407172082354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5292332205919114</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5969366592573938</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7863295886315461</v>
+        <v>-0.748583300173034</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6231001685736871</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.559851057584636</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6508006583500739</v>
+        <v>0.6271608606631053</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5612947316964501</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6999531750062187</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6343527623860991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.6481801882661848</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7492697206218154</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7317461824603876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8060240892885036</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.646973472594045</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6880219994137031</v>
+        <v>-0.7476874291136051</v>
       </c>
     </row>
   </sheetData>
